--- a/SpendCraft.xlsx
+++ b/SpendCraft.xlsx
@@ -17,7 +17,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A17">
+    <comment authorId="0" ref="A18">
+      <text>
+        <t xml:space="preserve">Flight to Cali for Brigid. She can pay once a month.
+	-Rick Scorpio</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A24">
       <text>
         <t xml:space="preserve">These are monthly bills that are NOT required but nice. Can be deleted per month if things get tight
 	-Rick Scorpio</t>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>S̷p̷e̷n̷d̷C̷r̷a̷f̷t̷</t>
   </si>
@@ -63,13 +69,25 @@
     <t>PHONE 80.00</t>
   </si>
   <si>
-    <t>TRUCK 225</t>
+    <t>TRUCK 227</t>
   </si>
   <si>
     <t>ELECTRIC  50</t>
   </si>
   <si>
     <t>ATTORNEY 200</t>
+  </si>
+  <si>
+    <t>AFFIRM TARGET</t>
+  </si>
+  <si>
+    <t>AFFIRM AMAZON (PAID AUG 4TH)</t>
+  </si>
+  <si>
+    <t>AFFIRM AMAZON (Pay off Next Check 17th)</t>
+  </si>
+  <si>
+    <t>AFFIRM PRICELINE</t>
   </si>
   <si>
     <t>GAS 50</t>
@@ -336,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border/>
     <border>
       <left style="medium">
@@ -621,6 +639,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -695,11 +737,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
     </border>
@@ -860,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -985,19 +1022,39 @@
     <xf borderId="29" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="31" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="8" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="10" fillId="8" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="14" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="34" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="32" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="35" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="14" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="37" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="35" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="38" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -1007,39 +1064,39 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="36" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="37" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="39" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="30" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="10" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="38" fillId="10" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="40" fillId="10" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="39" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="40" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="41" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="42" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="43" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="44" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="45" fillId="10" fontId="15" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="22" fillId="9" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="16" fillId="6" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1053,52 +1110,49 @@
     <xf borderId="8" fillId="11" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="46" fillId="11" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="48" fillId="11" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="8" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="8" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="46" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="48" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="49" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="11" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="46" fillId="11" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="48" fillId="11" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="31" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="31" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="9" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="49" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="51" fillId="12" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,7 +1231,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A9:AV15" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A9:AV22" displayName="Table_1" id="1">
   <tableColumns count="48">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1238,7 +1292,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A16:AV23" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A23:AV30" displayName="Table_2" id="2">
   <tableColumns count="48">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1774,7 +1828,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="16">
-        <v>481.0</v>
+        <v>265.0</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17">
@@ -1874,118 +1928,118 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="19">
-        <f>SUM(D5-SUMIF(C9:C15,"&lt;&gt;",D9:D15)+SUMIF(C18:C23,"&lt;&gt;",D18:D23))/(DATEDIF(TODAY(), F3, "D"))</f>
-        <v>14.03333333</v>
+        <f>SUM(D5-SUMIF(C9:C22,"&lt;&gt;",D9:D22)+SUMIF(C25:C30,"&lt;&gt;",D25:D30))/(DATEDIF(TODAY(), F3, "D"))</f>
+        <v>16.88461538</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="19">
-        <f>SUM(F5-SUMIF(E9:E15,"&lt;&gt;",F9:F15)+SUMIF(E18:E23,"&lt;&gt;",F18:F23))/(DATEDIF(TODAY(), H3, "D"))</f>
-        <v>13.79310345</v>
+        <f>SUM(F5-SUMIF(E9:E22,"&lt;&gt;",F9:F22)+SUMIF(E25:E30,"&lt;&gt;",F25:F30))/(DATEDIF(TODAY(), H3, "D"))</f>
+        <v>8.37037037</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="19">
-        <f>SUM(H5-SUMIF(G9:G15,"&lt;&gt;",H9:H15)+SUMIF(G18:G23,"&lt;&gt;",H18:H23))/(DATEDIF(TODAY(), J3, "D"))</f>
-        <v>10.8372093</v>
+        <f>SUM(H5-SUMIF(G9:G22,"&lt;&gt;",H9:H22)+SUMIF(G25:G30,"&lt;&gt;",H25:H30))/(DATEDIF(TODAY(), J3, "D"))</f>
+        <v>10.31707317</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="19">
-        <f>SUM(J5-SUMIF(I9:I15,"&lt;&gt;",J9:J15)+SUMIF(I18:I23,"&lt;&gt;",J18:J23))/(DATEDIF(TODAY(), L3, "D"))</f>
-        <v>7.98245614</v>
+        <f>SUM(J5-SUMIF(I9:I22,"&lt;&gt;",J9:J22)+SUMIF(I25:I30,"&lt;&gt;",J25:J30))/(DATEDIF(TODAY(), L3, "D"))</f>
+        <v>8.236363636</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="19">
-        <f>SUM(L5-SUMIF(K9:K15,"&lt;&gt;",L9:L15)+SUMIF(K18:K23,"&lt;&gt;",L18:L23))/(DATEDIF(TODAY(), N3, "D"))</f>
-        <v>6.563380282</v>
+        <f>SUM(L5-SUMIF(K9:K22,"&lt;&gt;",L9:L22)+SUMIF(K25:K30,"&lt;&gt;",L25:L30))/(DATEDIF(TODAY(), N3, "D"))</f>
+        <v>6.130434783</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="19">
-        <f>SUM(N5-SUMIF(M9:M15,"&lt;&gt;",N9:N15)+SUMIF(M18:M23,"&lt;&gt;",N18:N23))/(DATEDIF(TODAY(), P3, "D"))</f>
-        <v>5.352941176</v>
+        <f>SUM(N5-SUMIF(M9:M22,"&lt;&gt;",N9:N22)+SUMIF(M25:M30,"&lt;&gt;",N25:N30))/(DATEDIF(TODAY(), P3, "D"))</f>
+        <v>5</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="19">
-        <f>SUM(P5-SUMIF(O9:O15,"&lt;&gt;",P9:P15)+SUMIF(O18:O23,"&lt;&gt;",P18:P23))/(DATEDIF(TODAY(), R3, "D"))</f>
-        <v>4.707070707</v>
+        <f>SUM(P5-SUMIF(O9:O22,"&lt;&gt;",P9:P22)+SUMIF(O25:O30,"&lt;&gt;",P25:P30))/(DATEDIF(TODAY(), R3, "D"))</f>
+        <v>4.360824742</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="19">
-        <f>SUM(R5-SUMIF(Q9:Q15,"&lt;&gt;",R9:R15)+SUMIF(Q18:Q23,"&lt;&gt;",R18:R23))/(DATEDIF(TODAY(), T3, "D"))</f>
-        <v>4.026548673</v>
+        <f>SUM(R5-SUMIF(Q9:Q22,"&lt;&gt;",R9:R22)+SUMIF(Q25:Q30,"&lt;&gt;",R25:R30))/(DATEDIF(TODAY(), T3, "D"))</f>
+        <v>3.855855856</v>
       </c>
       <c r="S6" s="20"/>
       <c r="T6" s="19">
-        <f>SUM(T5-SUMIF(S9:S15,"&lt;&gt;",T9:T15)+SUMIF(S18:S23,"&lt;&gt;",T18:T23))/(DATEDIF(TODAY(), V3, "D"))</f>
-        <v>3.582677165</v>
+        <f>SUM(T5-SUMIF(S9:S22,"&lt;&gt;",T9:T22)+SUMIF(S25:S30,"&lt;&gt;",T25:T30))/(DATEDIF(TODAY(), V3, "D"))</f>
+        <v>3.296</v>
       </c>
       <c r="U6" s="20"/>
       <c r="V6" s="19">
-        <f>SUM(V5-SUMIF(U9:U15,"&lt;&gt;",V9:V15)+SUMIF(U18:U23,"&lt;&gt;",V18:V23))/(DATEDIF(TODAY(), X3, "D"))</f>
-        <v>3.226950355</v>
+        <f>SUM(V5-SUMIF(U9:U22,"&lt;&gt;",V9:V22)+SUMIF(U25:U30,"&lt;&gt;",V25:V30))/(DATEDIF(TODAY(), X3, "D"))</f>
+        <v>2.985611511</v>
       </c>
       <c r="W6" s="20"/>
       <c r="X6" s="19">
-        <f>SUM(X5-SUMIF(W9:W15,"&lt;&gt;",X9:X15)+SUMIF(W18:W23,"&lt;&gt;",X18:X23))/(DATEDIF(TODAY(), Z3, "D"))</f>
-        <v>2.935483871</v>
+        <f>SUM(X5-SUMIF(W9:W22,"&lt;&gt;",X9:X22)+SUMIF(W25:W30,"&lt;&gt;",X25:X30))/(DATEDIF(TODAY(), Z3, "D"))</f>
+        <v>2.777777778</v>
       </c>
       <c r="Y6" s="20"/>
       <c r="Z6" s="19">
-        <f>SUM(Z5-SUMIF(Y9:Y15,"&lt;&gt;",Z9:Z15)+SUMIF(Y18:Y23,"&lt;&gt;",Z18:Z23))/(DATEDIF(TODAY(), AB3, "D"))</f>
-        <v>2.692307692</v>
+        <f>SUM(Z5-SUMIF(Y9:Y22,"&lt;&gt;",Z9:Z22)+SUMIF(Y25:Y30,"&lt;&gt;",Z25:Z30))/(DATEDIF(TODAY(), AB3, "D"))</f>
+        <v>2.48502994</v>
       </c>
       <c r="AA6" s="20"/>
       <c r="AB6" s="19">
-        <f>SUM(AB5-SUMIF(AA9:AA15,"&lt;&gt;",AB9:AB15)+SUMIF(AA18:AA23,"&lt;&gt;",AB18:AB23))/(DATEDIF(TODAY(), AD3, "D"))</f>
-        <v>2.486338798</v>
+        <f>SUM(AB5-SUMIF(AA9:AA22,"&lt;&gt;",AB9:AB22)+SUMIF(AA25:AA30,"&lt;&gt;",AB25:AB30))/(DATEDIF(TODAY(), AD3, "D"))</f>
+        <v>2.348066298</v>
       </c>
       <c r="AC6" s="20"/>
       <c r="AD6" s="19">
-        <f>SUM(AD5-SUMIF(AC9:AC15,"&lt;&gt;",AD9:AD15)+SUMIF(AC18:AC23,"&lt;&gt;",AD18:AD23))/(DATEDIF(TODAY(), AF3, "D"))</f>
-        <v>2.30964467</v>
+        <f>SUM(AD5-SUMIF(AC9:AC22,"&lt;&gt;",AD9:AD22)+SUMIF(AC25:AC30,"&lt;&gt;",AD25:AD30))/(DATEDIF(TODAY(), AF3, "D"))</f>
+        <v>2.194871795</v>
       </c>
       <c r="AE6" s="20"/>
       <c r="AF6" s="19">
-        <f>SUM(AF5-SUMIF(AE9:AE15,"&lt;&gt;",AF9:AF15)+SUMIF(AE18:AE23,"&lt;&gt;",AF18:AF23))/(DATEDIF(TODAY(), AH3, "D"))</f>
-        <v>2.156398104</v>
+        <f>SUM(AF5-SUMIF(AE9:AE22,"&lt;&gt;",AF9:AF22)+SUMIF(AE25:AE30,"&lt;&gt;",AF25:AF30))/(DATEDIF(TODAY(), AH3, "D"))</f>
+        <v>2.167464115</v>
       </c>
       <c r="AG6" s="20"/>
       <c r="AH6" s="19">
-        <f>SUM(AH5-SUMIF(AG9:AG15,"&lt;&gt;",AH9:AH15)+SUMIF(AG18:AG23,"&lt;&gt;",AH18:AH23))/(DATEDIF(TODAY(), AJ3, "D"))</f>
-        <v>2.022222222</v>
+        <f>SUM(AH5-SUMIF(AG9:AG22,"&lt;&gt;",AH9:AH22)+SUMIF(AG25:AG30,"&lt;&gt;",AH25:AH30))/(DATEDIF(TODAY(), AJ3, "D"))</f>
+        <v>1.793721973</v>
       </c>
       <c r="AI6" s="20"/>
       <c r="AJ6" s="19">
-        <f>SUM(AJ5-SUMIF(AI9:AI15,"&lt;&gt;",AJ9:AJ15)+SUMIF(AI18:AI23,"&lt;&gt;",AJ18:AJ23))/(DATEDIF(TODAY(), AL3, "D"))</f>
-        <v>1.90376569</v>
+        <f>SUM(AJ5-SUMIF(AI9:AI22,"&lt;&gt;",AJ9:AJ22)+SUMIF(AI25:AI30,"&lt;&gt;",AJ25:AJ30))/(DATEDIF(TODAY(), AL3, "D"))</f>
+        <v>1.805907173</v>
       </c>
       <c r="AK6" s="20"/>
       <c r="AL6" s="19">
-        <f>SUM(AL5-SUMIF(AK9:AK15,"&lt;&gt;",AL9:AL15)+SUMIF(AK18:AK23,"&lt;&gt;",AL18:AL23))/(DATEDIF(TODAY(), AN3, "D"))</f>
-        <v>1.798418972</v>
+        <f>SUM(AL5-SUMIF(AK9:AK22,"&lt;&gt;",AL9:AL22)+SUMIF(AK25:AK30,"&lt;&gt;",AL25:AL30))/(DATEDIF(TODAY(), AN3, "D"))</f>
+        <v>1.693227092</v>
       </c>
       <c r="AM6" s="20"/>
       <c r="AN6" s="19">
-        <f>SUM(AN5-SUMIF(AM9:AM15,"&lt;&gt;",AN9:AN15)+SUMIF(AM18:AM23,"&lt;&gt;",AN18:AN23))/(DATEDIF(TODAY(), AP3, "D"))</f>
-        <v>1.70411985</v>
+        <f>SUM(AN5-SUMIF(AM9:AM22,"&lt;&gt;",AN9:AN22)+SUMIF(AM25:AM30,"&lt;&gt;",AN25:AN30))/(DATEDIF(TODAY(), AP3, "D"))</f>
+        <v>1.61509434</v>
       </c>
       <c r="AO6" s="20"/>
       <c r="AP6" s="19">
-        <f>SUM(AP5-SUMIF(AO9:AO15,"&lt;&gt;",AP9:AP15)+SUMIF(AO18:AO23,"&lt;&gt;",AP18:AP23))/(DATEDIF(TODAY(), AR3, "D"))</f>
-        <v>1.619217082</v>
+        <f>SUM(AP5-SUMIF(AO9:AO22,"&lt;&gt;",AP9:AP22)+SUMIF(AO25:AO30,"&lt;&gt;",AP25:AP30))/(DATEDIF(TODAY(), AR3, "D"))</f>
+        <v>1.523297491</v>
       </c>
       <c r="AQ6" s="20"/>
       <c r="AR6" s="19">
-        <f>SUM(AR5-SUMIF(AQ9:AQ15,"&lt;&gt;",AR9:AR15)+SUMIF(AQ18:AQ23,"&lt;&gt;",AR18:AR23))/(DATEDIF(TODAY(), AT3, "D"))</f>
-        <v>1.542372881</v>
+        <f>SUM(AR5-SUMIF(AQ9:AQ22,"&lt;&gt;",AR9:AR22)+SUMIF(AQ25:AQ30,"&lt;&gt;",AR25:AR30))/(DATEDIF(TODAY(), AT3, "D"))</f>
+        <v>1.460750853</v>
       </c>
       <c r="AS6" s="20"/>
       <c r="AT6" s="19">
-        <f>SUM(AT5-SUMIF(AS9:AS15,"&lt;&gt;",AT9:AT15)+SUMIF(AS18:AS23,"&lt;&gt;",AT18:AT23))/(DATEDIF(TODAY(), AV3, "D"))</f>
-        <v>1.472491909</v>
+        <f>SUM(AT5-SUMIF(AS9:AS22,"&lt;&gt;",AT9:AT22)+SUMIF(AS25:AS30,"&lt;&gt;",AT25:AT30))/(DATEDIF(TODAY(), AV3, "D"))</f>
+        <v>1.384364821</v>
       </c>
       <c r="AU6" s="20"/>
       <c r="AV6" s="19">
-        <f>SUM(AV5-SUMIF(AU9:AU15,"&lt;&gt;",AV9:AV15)+SUMIF(AU18:AU23,"&lt;&gt;",AV18:AV23))/(DATEDIF(TODAY(), AX3, "D"))</f>
-        <v>1.408668731</v>
+        <f>SUM(AV5-SUMIF(AU9:AU22,"&lt;&gt;",AV9:AV22)+SUMIF(AU25:AU30,"&lt;&gt;",AV25:AV30))/(DATEDIF(TODAY(), AX3, "D"))</f>
+        <v>1.333333333</v>
       </c>
     </row>
     <row r="7">
@@ -2654,168 +2708,168 @@
         <v>11</v>
       </c>
       <c r="B12" s="39">
-        <v>225.0</v>
+        <v>227.0</v>
       </c>
       <c r="C12" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="43">
         <f>if(C12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="E12" s="42" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="43">
         <f>if(E12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G12" s="44" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="43">
         <f>if(G12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="43">
         <f>if(I12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="43">
         <f>if(K12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="N12" s="43">
         <f>if(M12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="P12" s="43">
         <f>if(O12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="R12" s="43">
         <f>if(Q12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="T12" s="43">
         <f>if(S12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="V12" s="43">
         <f>if(U12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="W12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="X12" s="43">
         <f>if(W12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Y12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="Z12" s="43">
         <f>if(Y12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AA12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AB12" s="43">
         <f>if(AA12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AC12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AD12" s="43">
         <f>if(AC12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AE12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AF12" s="43">
         <f>if(AE12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AH12" s="43">
         <f>if(AG12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AI12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AJ12" s="43">
         <f>if(AI12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AK12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AL12" s="43">
         <f>if(AK12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AM12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AN12" s="43">
         <f>if(AM12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AO12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AP12" s="43">
         <f>if(AO12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AQ12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AR12" s="43">
         <f>if(AQ12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AS12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AT12" s="43">
         <f>if(AS12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AU12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AV12" s="43">
         <f>if(AU12=FALSE,$B$12,0)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -3160,1364 +3214,2114 @@
       <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="51">
-        <v>50.0</v>
-      </c>
-      <c r="C15" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="53">
-        <v>50.0</v>
-      </c>
-      <c r="E15" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
-        <f>if(E15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="G15" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="55">
-        <f>if(G15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="I15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="55">
-        <f>if(I15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="K15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="55">
-        <f>if(K15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="M15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="55">
-        <f>if(M15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="O15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="55">
-        <f>if(O15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="Q15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="55">
-        <f>if(Q15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="S15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="55">
-        <f>if(S15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="U15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="V15" s="55">
-        <f>if(U15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="W15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" s="55">
-        <f>if(W15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="Y15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="55">
-        <f>if(Y15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AA15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="55">
-        <f>if(AA15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AC15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="55">
-        <f>if(AC15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AE15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="55">
-        <f>if(AE15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AG15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="55">
-        <f>if(AG15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AI15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="55">
-        <f>if(AI15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AK15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="55">
-        <f>if(AK15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AM15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="55">
-        <f>if(AM15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AO15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="55">
-        <f>if(AO15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AQ15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="55">
-        <f>if(AQ15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AS15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="55">
-        <f>if(AS15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
-      <c r="AU15" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="55">
-        <f>if(AU15=FALSE,$B$15,0)</f>
-        <v>50</v>
-      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="I15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="M15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="Q15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="54"/>
+      <c r="S15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="U15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" s="54"/>
+      <c r="W15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="Y15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="AC15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="AI15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="AM15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="AQ15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="54">
+        <v>28.0</v>
+      </c>
+      <c r="AU15" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="54"/>
     </row>
     <row r="16">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="64"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="64"/>
-      <c r="AV16" s="66"/>
+      <c r="A16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="51">
+        <v>149.0</v>
+      </c>
+      <c r="C16" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="G16" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="I16" s="56"/>
+      <c r="J16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="K16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="M16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="O16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="S16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="U16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="W16" s="56"/>
+      <c r="X16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="Y16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="AA16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="54"/>
     </row>
     <row r="17">
-      <c r="A17" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="51">
+        <v>95.0</v>
+      </c>
+      <c r="C17" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="54">
+        <v>95.0</v>
+      </c>
+      <c r="G17" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="54"/>
+      <c r="O17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="54"/>
+      <c r="S17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="54"/>
+      <c r="U17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="54"/>
+      <c r="W17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="54"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="51">
+        <v>255.0</v>
+      </c>
+      <c r="C18" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="G18" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="K18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="M18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="O18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="S18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="54"/>
+      <c r="U18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="W18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="AA18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="AE18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="AI18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="AK18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="AO18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="54">
+        <v>25.0</v>
+      </c>
+      <c r="AS18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="54">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="51">
+        <v>39.0</v>
+      </c>
+      <c r="C19" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="54">
+        <v>39.0</v>
+      </c>
+      <c r="G19" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="54"/>
+      <c r="S19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="54"/>
+      <c r="U19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="W19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="54"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="54"/>
+      <c r="M20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="54"/>
+      <c r="S20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="54"/>
+      <c r="U20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="54"/>
+      <c r="W20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="54"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="54"/>
+      <c r="S21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="54"/>
+      <c r="U21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" s="54"/>
+      <c r="W21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="54"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="59">
+        <v>50.0</v>
+      </c>
+      <c r="C22" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="61">
+        <v>50.0</v>
+      </c>
+      <c r="E22" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="63">
+        <f>if(E22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="G22" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="63">
+        <f>if(G22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="I22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="63">
+        <f>if(I22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="K22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="63">
+        <f>if(K22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="63">
+        <f>if(M22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="O22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="63">
+        <f>if(O22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="Q22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="63">
+        <f>if(Q22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="S22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="63">
+        <f>if(S22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="U22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" s="63">
+        <f>if(U22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="W22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" s="63">
+        <f>if(W22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="Y22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="63">
+        <f>if(Y22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AA22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="63">
+        <f>if(AA22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AC22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="63">
+        <f>if(AC22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AE22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="63">
+        <f>if(AE22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AG22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="63">
+        <f>if(AG22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AI22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="63">
+        <f>if(AI22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AK22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="63">
+        <f>if(AK22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AM22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="63">
+        <f>if(AM22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AO22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="63">
+        <f>if(AO22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AQ22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="63">
+        <f>if(AQ22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AS22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="63">
+        <f>if(AS22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AU22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="63">
+        <f>if(AU22=FALSE,$B$22,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="74"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="26">
+      <c r="C24" s="77"/>
+      <c r="D24" s="26">
         <f>$D$3</f>
         <v>44988</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71">
+      <c r="E24" s="78"/>
+      <c r="F24" s="79">
         <f>F3</f>
         <v>45002</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73">
+      <c r="G24" s="80"/>
+      <c r="H24" s="81">
         <f>H3</f>
         <v>45016</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71">
+      <c r="I24" s="78"/>
+      <c r="J24" s="79">
         <f>J3</f>
         <v>45030</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73">
+      <c r="K24" s="80"/>
+      <c r="L24" s="81">
         <f>L3</f>
         <v>45044</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71">
+      <c r="M24" s="78"/>
+      <c r="N24" s="79">
         <f>N3</f>
         <v>45058</v>
       </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="73">
+      <c r="O24" s="80"/>
+      <c r="P24" s="81">
         <f>P3</f>
         <v>45072</v>
       </c>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71">
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79">
         <f>R3</f>
         <v>45086</v>
       </c>
-      <c r="S17" s="72"/>
-      <c r="T17" s="73">
+      <c r="S24" s="80"/>
+      <c r="T24" s="81">
         <f>T3</f>
         <v>45100</v>
       </c>
-      <c r="U17" s="70"/>
-      <c r="V17" s="71">
+      <c r="U24" s="78"/>
+      <c r="V24" s="79">
         <f>V3</f>
         <v>45114</v>
       </c>
-      <c r="W17" s="72"/>
-      <c r="X17" s="73">
+      <c r="W24" s="80"/>
+      <c r="X24" s="81">
         <f>X3</f>
         <v>45128</v>
       </c>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="71">
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79">
         <f>Z3</f>
         <v>45142</v>
       </c>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="73">
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="81">
         <f>AB3</f>
         <v>45156</v>
       </c>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="71">
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="79">
         <f>AD3</f>
         <v>45170</v>
       </c>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="73">
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="81">
         <f>AF3</f>
         <v>45184</v>
       </c>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="71">
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="79">
         <f>AH3</f>
         <v>45198</v>
       </c>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="73">
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="81">
         <f>AJ3</f>
         <v>45212</v>
       </c>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="71">
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="79">
         <f>AL3</f>
         <v>45226</v>
       </c>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="73">
+      <c r="AM24" s="80"/>
+      <c r="AN24" s="81">
         <f>AN3</f>
         <v>45240</v>
       </c>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="71">
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="79">
         <f>AP3</f>
         <v>45254</v>
       </c>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="73">
+      <c r="AQ24" s="80"/>
+      <c r="AR24" s="81">
         <f>AR3</f>
         <v>45268</v>
       </c>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="71">
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="79">
         <f>AT3</f>
         <v>45282</v>
       </c>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="73">
+      <c r="AU24" s="80"/>
+      <c r="AV24" s="81">
         <f>AV3</f>
         <v>45296</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="75">
+    <row r="25">
+      <c r="A25" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="83">
         <v>16.0</v>
       </c>
-      <c r="C18" s="76" t="b">
+      <c r="C25" s="84" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D25" s="85">
         <v>0.0</v>
       </c>
-      <c r="E18" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="79">
+      <c r="E25" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="87">
         <v>16.0</v>
       </c>
-      <c r="I18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="79">
+      <c r="I25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="87">
         <v>16.0</v>
       </c>
-      <c r="M18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="79">
+      <c r="M25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="88"/>
+      <c r="O25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="87">
         <v>16.0</v>
       </c>
-      <c r="Q18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="80"/>
-      <c r="S18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="80"/>
-      <c r="U18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="V18" s="81"/>
-      <c r="W18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="81"/>
-      <c r="AQ18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="81"/>
-      <c r="AU18" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="82"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="39">
-        <v>50.0</v>
-      </c>
-      <c r="C19" s="84" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="I19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="K19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="M19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="O19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="Q19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="S19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="79">
-        <v>50.0</v>
-      </c>
-      <c r="U19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="V19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="W19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="Y19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AA19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AC19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AE19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AG19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AI19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AK19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AM19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AO19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AQ19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AS19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="AU19" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="87">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="C20" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="K20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="O20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="S20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="U20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="V20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="W20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="Y20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AA20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AC20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AE20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AG20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AI20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AK20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AM20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AO20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AQ20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AS20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="AU20" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="90">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="39">
-        <v>9.0</v>
-      </c>
-      <c r="C21" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="41">
-        <f>if(C21=true,"4.5",4.5)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E21" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="G21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="I21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="K21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="M21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="O21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="Q21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="S21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="79">
-        <v>4.5</v>
-      </c>
-      <c r="U21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="V21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="W21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="Y21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AA21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AC21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AE21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AG21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AI21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AK21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AM21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AQ21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AS21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="86">
-        <v>4.5</v>
-      </c>
-      <c r="AU21" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="91">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="39">
-        <v>35.0</v>
-      </c>
-      <c r="C22" s="92" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="80"/>
-      <c r="O22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="80"/>
-      <c r="S22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="80"/>
-      <c r="U22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="V22" s="81"/>
-      <c r="W22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="81"/>
-      <c r="AU22" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="82"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="96"/>
-      <c r="I23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="96"/>
-      <c r="K23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="96"/>
-      <c r="S23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="96"/>
-      <c r="U23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="V23" s="98"/>
-      <c r="W23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="98"/>
-      <c r="AQ23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="98"/>
-      <c r="AS23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="98"/>
-      <c r="AU23" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="99"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="101"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="101"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="101"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="101"/>
-      <c r="AU24" s="101"/>
-      <c r="AV24" s="101"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100">
-        <f>sum(D9:D15,D18:D23)</f>
-        <v>279.5</v>
-      </c>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100">
-        <f>sum(F9:F15,F18:F23)</f>
-        <v>1309</v>
-      </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100">
-        <f>sum(H9:H15,H18:H23)</f>
-        <v>1375</v>
-      </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100">
-        <f>sum(J9:J15,J18:J23)</f>
-        <v>1364</v>
-      </c>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100">
-        <f>sum(L9:L15,L18:L23)</f>
-        <v>1375</v>
-      </c>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100">
-        <f>sum(N9:N15,N18:N23)</f>
-        <v>1364</v>
-      </c>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100">
-        <f>sum(P9:P15,P18:P23)</f>
-        <v>1375</v>
-      </c>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100">
-        <f>sum(R9:R15,R18:R23)</f>
-        <v>1364</v>
-      </c>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100">
-        <f>sum(T9:T15,T18:T23)</f>
-        <v>1364</v>
-      </c>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100">
-        <f>sum(V9:V15,V18:V23)</f>
-        <v>1364</v>
-      </c>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100">
-        <f>sum(X9:X15,X18:X23)</f>
-        <v>1364</v>
-      </c>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100">
-        <f>sum(Z9:Z15,Z18:Z23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="100">
-        <f>sum(AB9:AB15,AB18:AB23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="100">
-        <f>sum(AD9:AD15,AD18:AD23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AE25" s="100"/>
-      <c r="AF25" s="100">
-        <f>sum(AF9:AF15,AF18:AF23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="100">
-        <f>sum(AH9:AH15,AH18:AH23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AI25" s="100"/>
-      <c r="AJ25" s="100">
-        <f>sum(AJ9:AJ15,AJ18:AJ23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AK25" s="100"/>
-      <c r="AL25" s="100">
-        <f>sum(AL9:AL15,AL18:AL23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AM25" s="100"/>
-      <c r="AN25" s="100">
-        <f>sum(AN9:AN15,AN18:AN23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AO25" s="100"/>
-      <c r="AP25" s="100">
-        <f>sum(AP9:AP15,AP18:AP23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AQ25" s="100"/>
-      <c r="AR25" s="100">
-        <f>sum(AR9:AR15,AR18:AR23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AS25" s="100"/>
-      <c r="AT25" s="100">
-        <f>sum(AT9:AT15,AT18:AT23)</f>
-        <v>1364</v>
-      </c>
-      <c r="AU25" s="100"/>
-      <c r="AV25" s="100">
-        <f>sum(AV9:AV15,AV18:AV23)</f>
-        <v>1364</v>
-      </c>
+      <c r="Q25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="88"/>
+      <c r="S25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="88"/>
+      <c r="U25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="89"/>
+      <c r="W25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="89"/>
+      <c r="AK25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="89"/>
+      <c r="AM25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="89"/>
+      <c r="AO25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="89"/>
+      <c r="AQ25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="89"/>
+      <c r="AS25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="90"/>
     </row>
     <row r="26">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="39">
+        <v>50.0</v>
+      </c>
+      <c r="C26" s="92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="I26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="K26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="M26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="O26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="Q26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="S26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="87">
+        <v>50.0</v>
+      </c>
+      <c r="U26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="W26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="Y26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AA26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AC26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AE26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AG26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AI26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AK26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AM26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AO26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AQ26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AS26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="94">
+        <v>50.0</v>
+      </c>
+      <c r="AU26" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="95">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="100">
-        <f>sum(D5-D25)</f>
-        <v>201.5</v>
-      </c>
-      <c r="F26" s="100">
-        <f>sum(F5-F25)</f>
-        <v>391</v>
-      </c>
-      <c r="H26" s="100">
-        <f>sum(H5-H25)</f>
-        <v>325</v>
-      </c>
-      <c r="J26" s="100">
-        <f>sum(J5-J25)</f>
-        <v>336</v>
-      </c>
-      <c r="L26" s="100">
-        <f>sum(L5-L25)</f>
-        <v>325</v>
-      </c>
-      <c r="N26" s="100">
-        <f>sum(N5-N25)</f>
-        <v>336</v>
-      </c>
-      <c r="P26" s="100">
-        <f>sum(P5-P25)</f>
-        <v>325</v>
-      </c>
-      <c r="R26" s="100">
-        <f>sum(R5-R25)</f>
-        <v>336</v>
-      </c>
-      <c r="T26" s="100">
-        <f>sum(T5-T25)</f>
-        <v>336</v>
-      </c>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100">
-        <f>sum(V5-V25)</f>
-        <v>336</v>
-      </c>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100">
-        <f>sum(X5-X25)</f>
-        <v>336</v>
-      </c>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100">
-        <f>sum(Z5-Z25)</f>
-        <v>336</v>
-      </c>
-      <c r="AA26" s="100"/>
-      <c r="AB26" s="100">
-        <f>sum(AB5-AB25)</f>
-        <v>336</v>
-      </c>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="100">
-        <f>sum(AD5-AD25)</f>
-        <v>336</v>
-      </c>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="100">
-        <f>sum(AF5-AF25)</f>
-        <v>336</v>
-      </c>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100">
-        <f>sum(AH5-AH25)</f>
-        <v>336</v>
-      </c>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="100">
-        <f>sum(AJ5-AJ25)</f>
-        <v>336</v>
-      </c>
-      <c r="AK26" s="100"/>
-      <c r="AL26" s="100">
-        <f>sum(AL5-AL25)</f>
-        <v>336</v>
-      </c>
-      <c r="AM26" s="100"/>
-      <c r="AN26" s="100">
-        <f>sum(AN5-AN25)</f>
-        <v>336</v>
-      </c>
-      <c r="AO26" s="100"/>
-      <c r="AP26" s="100">
-        <f>sum(AP5-AP25)</f>
-        <v>336</v>
-      </c>
-      <c r="AQ26" s="100"/>
-      <c r="AR26" s="100">
-        <f>sum(AR5-AR25)</f>
-        <v>336</v>
-      </c>
-      <c r="AS26" s="100"/>
-      <c r="AT26" s="100">
-        <f>sum(AT5-AT25)</f>
-        <v>336</v>
-      </c>
-      <c r="AU26" s="100"/>
-      <c r="AV26" s="100">
-        <f>sum(AV5-AV25)</f>
-        <v>336</v>
+      <c r="B27" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="C27" s="96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="88"/>
+      <c r="I27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="87">
+        <v>5.0</v>
+      </c>
+      <c r="K27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="88"/>
+      <c r="M27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="87">
+        <v>5.0</v>
+      </c>
+      <c r="O27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="87">
+        <v>5.0</v>
+      </c>
+      <c r="S27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="87">
+        <v>5.0</v>
+      </c>
+      <c r="U27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="W27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="Y27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AA27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AC27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AE27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AG27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AI27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AK27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AM27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AO27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AQ27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AS27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="97">
+        <v>5.0</v>
+      </c>
+      <c r="AU27" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="98">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="39">
+        <v>9.0</v>
+      </c>
+      <c r="C28" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41">
+        <f>if(C28=true,"4.5",4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="I28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="K28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="M28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="O28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="Q28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="S28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="U28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="W28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="Y28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AA28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AC28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AE28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AG28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AI28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AK28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AM28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AQ28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AS28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="AU28" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="99">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="39">
+        <v>35.0</v>
+      </c>
+      <c r="C29" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="88"/>
+      <c r="G29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="88"/>
+      <c r="I29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="87"/>
+      <c r="K29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="88"/>
+      <c r="M29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="88"/>
+      <c r="O29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="88"/>
+      <c r="S29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="88"/>
+      <c r="U29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" s="89"/>
+      <c r="W29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="89"/>
+      <c r="AK29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="89"/>
+      <c r="AO29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="89"/>
+      <c r="AQ29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="89"/>
+      <c r="AS29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="89"/>
+      <c r="AU29" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="90"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="101"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="104"/>
+      <c r="K30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="104"/>
+      <c r="M30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="104"/>
+      <c r="O30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="104"/>
+      <c r="S30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="104"/>
+      <c r="U30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" s="106"/>
+      <c r="W30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="106"/>
+      <c r="AK30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="106"/>
+      <c r="AM30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="106"/>
+      <c r="AQ30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="107"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="109"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="109"/>
+      <c r="AH31" s="109"/>
+      <c r="AI31" s="109"/>
+      <c r="AJ31" s="109"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="109"/>
+      <c r="AM31" s="109"/>
+      <c r="AN31" s="109"/>
+      <c r="AO31" s="109"/>
+      <c r="AP31" s="109"/>
+      <c r="AQ31" s="109"/>
+      <c r="AR31" s="109"/>
+      <c r="AS31" s="109"/>
+      <c r="AT31" s="109"/>
+      <c r="AU31" s="109"/>
+      <c r="AV31" s="109"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108">
+        <f>sum(D9:D22,D25:D30)</f>
+        <v>54.5</v>
+      </c>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108">
+        <f>sum(F9:F22,F25:F30)</f>
+        <v>1483</v>
+      </c>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108">
+        <f>sum(H9:H22,H25:H30)</f>
+        <v>1418</v>
+      </c>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108">
+        <f>sum(J9:J22,J25:J30)</f>
+        <v>1404</v>
+      </c>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108">
+        <f>sum(L9:L22,L25:L30)</f>
+        <v>1418</v>
+      </c>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108">
+        <f>sum(N9:N22,N25:N30)</f>
+        <v>1404</v>
+      </c>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108">
+        <f>sum(P9:P22,P25:P30)</f>
+        <v>1418</v>
+      </c>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108">
+        <f>sum(R9:R22,R25:R30)</f>
+        <v>1404</v>
+      </c>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108">
+        <f>sum(T9:T22,T25:T30)</f>
+        <v>1407</v>
+      </c>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108">
+        <f>sum(V9:V22,V25:V30)</f>
+        <v>1404</v>
+      </c>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108">
+        <f>sum(X9:X22,X25:X30)</f>
+        <v>1407</v>
+      </c>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108">
+        <f>sum(Z9:Z22,Z25:Z30)</f>
+        <v>1404</v>
+      </c>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108">
+        <f>sum(AB9:AB22,AB25:AB30)</f>
+        <v>1394</v>
+      </c>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108">
+        <f>sum(AD9:AD22,AD25:AD30)</f>
+        <v>1391</v>
+      </c>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108">
+        <f>sum(AF9:AF22,AF25:AF30)</f>
+        <v>1366</v>
+      </c>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108">
+        <f>sum(AH9:AH22,AH25:AH30)</f>
+        <v>1419</v>
+      </c>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108">
+        <f>sum(AJ9:AJ22,AJ25:AJ30)</f>
+        <v>1391</v>
+      </c>
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108">
+        <f>sum(AL9:AL22,AL25:AL30)</f>
+        <v>1394</v>
+      </c>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108">
+        <f>sum(AN9:AN22,AN25:AN30)</f>
+        <v>1391</v>
+      </c>
+      <c r="AO32" s="108"/>
+      <c r="AP32" s="108">
+        <f>sum(AP9:AP22,AP25:AP30)</f>
+        <v>1394</v>
+      </c>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="108">
+        <f>sum(AR9:AR22,AR25:AR30)</f>
+        <v>1391</v>
+      </c>
+      <c r="AS32" s="108"/>
+      <c r="AT32" s="108">
+        <f>sum(AT9:AT22,AT25:AT30)</f>
+        <v>1394</v>
+      </c>
+      <c r="AU32" s="108"/>
+      <c r="AV32" s="108">
+        <f>sum(AV9:AV22,AV25:AV30)</f>
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="108">
+        <f>sum(D5-D32)</f>
+        <v>210.5</v>
+      </c>
+      <c r="F33" s="108">
+        <f>sum(F5-F32)</f>
+        <v>217</v>
+      </c>
+      <c r="H33" s="108">
+        <f>sum(H5-H32)</f>
+        <v>282</v>
+      </c>
+      <c r="J33" s="108">
+        <f>sum(J5-J32)</f>
+        <v>296</v>
+      </c>
+      <c r="L33" s="108">
+        <f>sum(L5-L32)</f>
+        <v>282</v>
+      </c>
+      <c r="N33" s="108">
+        <f>sum(N5-N32)</f>
+        <v>296</v>
+      </c>
+      <c r="P33" s="108">
+        <f>sum(P5-P32)</f>
+        <v>282</v>
+      </c>
+      <c r="R33" s="108">
+        <f>sum(R5-R32)</f>
+        <v>296</v>
+      </c>
+      <c r="T33" s="108">
+        <f>sum(T5-T32)</f>
+        <v>293</v>
+      </c>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108">
+        <f>sum(V5-V32)</f>
+        <v>296</v>
+      </c>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108">
+        <f>sum(X5-X32)</f>
+        <v>293</v>
+      </c>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108">
+        <f>sum(Z5-Z32)</f>
+        <v>296</v>
+      </c>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108">
+        <f>sum(AB5-AB32)</f>
+        <v>306</v>
+      </c>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108">
+        <f>sum(AD5-AD32)</f>
+        <v>309</v>
+      </c>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108">
+        <f>sum(AF5-AF32)</f>
+        <v>334</v>
+      </c>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108">
+        <f>sum(AH5-AH32)</f>
+        <v>281</v>
+      </c>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="108">
+        <f>sum(AJ5-AJ32)</f>
+        <v>309</v>
+      </c>
+      <c r="AK33" s="108"/>
+      <c r="AL33" s="108">
+        <f>sum(AL5-AL32)</f>
+        <v>306</v>
+      </c>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="108">
+        <f>sum(AN5-AN32)</f>
+        <v>309</v>
+      </c>
+      <c r="AO33" s="108"/>
+      <c r="AP33" s="108">
+        <f>sum(AP5-AP32)</f>
+        <v>306</v>
+      </c>
+      <c r="AQ33" s="108"/>
+      <c r="AR33" s="108">
+        <f>sum(AR5-AR32)</f>
+        <v>309</v>
+      </c>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="108">
+        <f>sum(AT5-AT32)</f>
+        <v>306</v>
+      </c>
+      <c r="AU33" s="108"/>
+      <c r="AV33" s="108">
+        <f>sum(AV5-AV32)</f>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:T8 U5:AV6 B7:C8 U8:AV8 B10:C26 E10:E26 F10 G10:T26 V10 X10 Z10 AB10 AD10 AF10 AH10 AJ10 AL10 AN10 AP10 AR10 AT10 AV10 F12:F26 V12:V15 X12:X15 Z12:Z15 AB12:AB15 AD12:AD15 AF12:AF15 AH12:AH15 AJ12:AJ15 AL12:AL15 AN12:AN15 AP12:AP15 AR12:AR15 AT12:AT15 AV12:AV15 D16:D17 U17:AV17 D19 D22:D26 U22:U23 W22:W23 Y22:Y23 AA22:AA23 AC22:AC23 AE22:AE23 AG22:AG23 AI22:AI23 AK22:AK23 AM22:AM23 AO22:AO23 AQ22:AQ23 AS22:AS23 AU22:AU23 U25:AV25">
+  <conditionalFormatting sqref="D4:T8 U5:AV6 B7:C8 U8:AV8 B10:C33 E10:E33 F10 G10:T33 V10 X10 Z10 AB10 AD10 AF10 AH10 AJ10 AL10 AN10 AP10 AR10 AT10 AV10 F12:F33 V12:V22 X12:X22 Z12:Z22 AB12:AB22 AD12:AD22 AF12:AF22 AH12:AH22 AJ12:AJ22 AL12:AL22 AN12:AN22 AP12:AP22 AR12:AR22 AT12:AT22 AV12:AV22 D23:D24 U24:AV24 D26 D29:D33 U29:U30 W29:W30 Y29:Y30 AA29:AA30 AC29:AC30 AE29:AE30 AG29:AG30 AI29:AI30 AK29:AK30 AM29:AM30 AO29:AO30 AQ29:AQ30 AS29:AS30 AU29:AU30 U32:AV32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -4545,112 +5349,112 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="102" t="s">
-        <v>23</v>
+      <c r="A1" s="57" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="102" t="s">
-        <v>24</v>
+      <c r="A2" s="57" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="102" t="s">
-        <v>25</v>
+      <c r="A3" s="57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="102" t="s">
-        <v>26</v>
+      <c r="A5" s="57" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="102" t="s">
-        <v>27</v>
+      <c r="A6" s="57" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="102" t="s">
-        <v>28</v>
+      <c r="A8" s="57" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="102" t="s">
-        <v>29</v>
+      <c r="A10" s="57" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="102" t="s">
-        <v>30</v>
+      <c r="A11" s="57" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="102">
+      <c r="A12" s="57">
         <v>2.0</v>
       </c>
-      <c r="B12" s="102" t="s">
-        <v>31</v>
+      <c r="B12" s="57" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="102">
+      <c r="A13" s="57">
         <v>3.0</v>
       </c>
-      <c r="B13" s="102" t="s">
-        <v>32</v>
+      <c r="B13" s="57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="102">
+      <c r="A14" s="57">
         <v>4.0</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>33</v>
+      <c r="B14" s="57" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="102" t="s">
-        <v>34</v>
+      <c r="B15" s="57" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="102" t="s">
-        <v>35</v>
+      <c r="A17" s="57" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="102" t="s">
-        <v>36</v>
+      <c r="A18" s="57" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="102" t="s">
-        <v>37</v>
+      <c r="A19" s="57" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="102" t="s">
-        <v>38</v>
+      <c r="A20" s="57" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="102" t="s">
-        <v>39</v>
+      <c r="A21" s="57" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="102" t="s">
-        <v>40</v>
+      <c r="A23" s="57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="102" t="s">
-        <v>41</v>
+      <c r="A24" s="57" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="102" t="s">
-        <v>42</v>
+      <c r="A25" s="57" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
